--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:08:22+00:00</t>
+    <t>2023-10-02T16:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12958,7 +12958,7 @@
         <v>50</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>35</v>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:24:37+00:00</t>
+    <t>2023-10-02T16:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -14508,7 +14508,7 @@
         <v>50</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>35</v>
@@ -15032,7 +15032,7 @@
         <v>50</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>35</v>
@@ -15163,7 +15163,7 @@
         <v>50</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>35</v>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:25:05+00:00</t>
+    <t>2023-10-05T15:57:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1840,28 +1840,28 @@
     <t>DocumentEntry.referenceIdList using CXi encoding for type when possible</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry</t>
-  </si>
-  <si>
-    <t>xdsdocumententry</t>
+    <t>DocumentReference.context.related:referenceIdList</t>
+  </si>
+  <si>
+    <t>referenceIdList</t>
   </si>
   <si>
     <t>Données d’un « identifiant de référence » (referenceIdList)</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.id</t>
+    <t>DocumentReference.context.related:referenceIdList.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.reference</t>
+    <t>DocumentReference.context.related:referenceIdList.reference</t>
   </si>
   <si>
     <t>DocumentReference.context.related.reference</t>
@@ -1871,31 +1871,31 @@
 ref-1</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.type</t>
+    <t>DocumentReference.context.related:referenceIdList.type</t>
   </si>
   <si>
     <t>DocumentReference.context.related.type</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.use</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.use</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.use</t>
@@ -1925,7 +1925,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type</t>
@@ -1955,19 +1955,19 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding</t>
@@ -1994,19 +1994,19 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.system</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.system</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.system</t>
@@ -2024,7 +2024,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986</t>
+    <t>ISO</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -2036,7 +2036,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.version</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.version</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.version</t>
@@ -2060,13 +2060,13 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.code</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.code</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>[CXi.5] Identifier Type Code</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -2084,7 +2084,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.display</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.display</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.display</t>
@@ -2108,7 +2108,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.userSelected</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.userSelected</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.userSelected</t>
@@ -2139,7 +2139,7 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.text</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.text</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.text</t>
@@ -2166,13 +2166,13 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.system</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.system</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>[CXi.4] Assigning Authority : n'est pas présent dans le cas de studyInstanceUID.</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -2196,13 +2196,13 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.value</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.value</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>[CXi.1] Accession number</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -2223,7 +2223,7 @@
     <t>CX.1 / EI.1</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.period</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.period</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.period</t>
@@ -2252,7 +2252,7 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.assigner</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.assigner</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.assigner</t>
@@ -2280,7 +2280,7 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.display</t>
+    <t>DocumentReference.context.related:referenceIdList.display</t>
   </si>
   <si>
     <t>DocumentReference.context.related.display</t>
@@ -2604,9 +2604,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="85.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="81.62109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="67.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.7890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -12312,7 +12312,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>50</v>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:57:13+00:00</t>
+    <t>2023-10-10T15:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1818,7 +1818,7 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type.coding.system}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -2066,7 +2066,7 @@
     <t>DocumentReference.context.related.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>[CXi.5] Identifier Type Code</t>
+    <t>[CXi.5] Identifier Type Code : urn:ihe:iti:xds:2016:studyInstanceUID | urn:ihe:iti:xds:2013:order | urn:ihe:iti:xds:2013:accession</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -2172,7 +2172,7 @@
     <t>DocumentReference.context.related.identifier.system</t>
   </si>
   <si>
-    <t>[CXi.4] Assigning Authority : n'est pas présent dans le cas de studyInstanceUID.</t>
+    <t>[CXi.4.2] Assigning Authority (ce champs n'est pas présent systématiquement, il ne l'est dans le cas de studyInstanceUID notamment).</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -2630,7 +2630,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="27.61328125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="43.88671875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>

--- a/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-ReferenceIdList/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T15:16:16+00:00</t>
+    <t>2023-10-10T16:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2024,7 +2024,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>ISO</t>
+    <t>urn:ietf:rfc:3986</t>
   </si>
   <si>
     <t>Coding.system</t>
